--- a/Symphony/2021/OCTOBER/All Details/25.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/25.10.2021/MC Bank Statement October-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -296,6 +296,20 @@
             <charset val="1"/>
           </rPr>
           <t>Rubel DSR Sharif Telecom Phone Servicing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamrul Sales Khata</t>
         </r>
       </text>
     </comment>
@@ -6498,9 +6512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7517,7 +7531,9 @@
         <v>500</v>
       </c>
       <c r="C26" s="91"/>
-      <c r="D26" s="99"/>
+      <c r="D26" s="99">
+        <v>240</v>
+      </c>
       <c r="E26" s="99"/>
       <c r="F26" s="99"/>
       <c r="G26" s="99"/>
@@ -7536,7 +7552,7 @@
       <c r="P26" s="101"/>
       <c r="Q26" s="95">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>1290</v>
       </c>
       <c r="R26" s="96"/>
       <c r="S26" s="7"/>
@@ -7796,7 +7812,7 @@
       </c>
       <c r="D37" s="117">
         <f t="shared" si="1"/>
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="E37" s="117">
         <f t="shared" si="1"/>
@@ -7848,7 +7864,7 @@
       </c>
       <c r="Q37" s="119">
         <f>SUM(Q6:Q36)</f>
-        <v>52985</v>
+        <v>53225</v>
       </c>
       <c r="S37" s="255" t="s">
         <v>63</v>
@@ -9857,6 +9873,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9870,12 +9892,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9889,7 +9905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -12580,14 +12596,14 @@
         <v>491520</v>
       </c>
       <c r="C25" s="67">
-        <v>484540</v>
+        <v>534540</v>
       </c>
       <c r="D25" s="64">
         <v>1050</v>
       </c>
       <c r="E25" s="64">
         <f t="shared" si="0"/>
-        <v>485590</v>
+        <v>535590</v>
       </c>
       <c r="F25" s="259"/>
       <c r="G25" s="278">
@@ -13408,7 +13424,7 @@
       </c>
       <c r="C33" s="314">
         <f>SUM(C5:C32)</f>
-        <v>11691244</v>
+        <v>11741244</v>
       </c>
       <c r="D33" s="313">
         <f>SUM(D5:D32)</f>
@@ -13416,11 +13432,11 @@
       </c>
       <c r="E33" s="313">
         <f>SUM(E5:E32)</f>
-        <v>11742169</v>
+        <v>11792169</v>
       </c>
       <c r="F33" s="313">
         <f>B33-E33</f>
-        <v>76311</v>
+        <v>26311</v>
       </c>
       <c r="G33" s="315"/>
       <c r="H33" s="158"/>
@@ -14832,7 +14848,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="233">
-        <v>540660</v>
+        <v>490660</v>
       </c>
       <c r="E46" s="205" t="s">
         <v>239</v>
@@ -23051,7 +23067,7 @@
       <c r="C119" s="357"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
-        <v>2072621</v>
+        <v>2022621</v>
       </c>
       <c r="E119" s="229"/>
       <c r="F119" s="157"/>
@@ -23258,7 +23274,7 @@
       <c r="C121" s="345"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
-        <v>2072621</v>
+        <v>2022621</v>
       </c>
       <c r="E121" s="229"/>
       <c r="F121" s="157"/>
@@ -34490,8 +34506,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34716,7 +34732,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="283">
-        <v>463305.93976190407</v>
+        <v>513305.93976190407</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="321"/>
@@ -34823,7 +34839,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="282">
-        <v>2072621</v>
+        <v>2022621</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="266"/>
@@ -35344,7 +35360,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="299">
-        <v>540660</v>
+        <v>490660</v>
       </c>
       <c r="C25" s="140"/>
       <c r="D25" s="295" t="s">
